--- a/DataBase/Descriptions.xlsx
+++ b/DataBase/Descriptions.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programing\Prog_Py\PP\MEPHI-pp\DataBase\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2830968B-CC90-4F7E-A1F4-D6857B9AE59F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="228" yWindow="516" windowWidth="18876" windowHeight="8940"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
   <si>
     <t>ID</t>
   </si>
@@ -362,17 +368,142 @@
   <si>
     <t>1000 RUB</t>
   </si>
+  <si>
+    <t>Специализация Программирование на Java и основы программной инженерииПолучаемые навыки
+Программная инженерия
+Структура данных
+Компьютерное программирование
+Анализ данных
+Алгоритмы
+HTML
+Отладка
+JavaScript
+Каскадные таблицы стилей (CSS)
+Разработка программного обеспечения
+Программирование на Java
+Объектно-ориентированное программирование (ООП)Изучите основные концепции программирования (например, функции, циклы for, условные операторы) и научитесь решать проблемы, как программист. Кроме того, Вы изучите основы веб-разработки, создавая веб-страницы с помощью HTML, CSS и JavaScript. К концу курса Вы создадите веб-страницу, на которую другие смогут загружать свои изображения и применять к ним созданные Вами фильтры изображений. После завершения этого курса Вы сможете: 1. Критически подходить к решению проблемы с помощью программирования; 2. Писать программы на JavaScript, используя функции, циклы for и условные операторы; 3. Использовать HTML для создания веб-страницы с абзацами, divs, изображениями, ссылками и списками; 4. Добавляйте стили на веб-страницу с помощью идентификаторов и классов CSS; и 5. Сделайте веб-страницу интерактивной с помощью команд JavaScript, таких как alert, onClick, onChange, добавив такие элементы ввода, как полотно с изображениями, кнопка и слайдер.Научитесь кодировать на языке Java и улучшите свои навыки программирования и решения задач. Вы научитесь проектировать алгоритмы, а также разрабатывать и отлаживать программы. Используя пользовательские классы с открытым исходным кодом, Вы будете писать программы, которые получают доступ и преобразуют изображения, веб-сайты и другие типы данных. В конце курса Вы создадите программу, определяющую популярность различных детских имен в США с течением времени путем анализа файлов с разделенными запятыми значениями (CSV). 
+После завершения этого курса Вы сможете: 1. Редактировать, компилировать и запускать программу на Java; 2. Использовать условия и циклы в Java-программе; 3. Использовать документацию Java API при написании программ. 
+4. Отлаживать Java-программу, используя научный метод; 5. Напишите метод Java для решения конкретной задачи; 6. Разработайте набор тестовых примеров как часть разработки программы; 7. Создайте класс с несколькими методами, которые работают вместе для решения проблемы; и 8. Используйте технику проектирования по принципу "разделяй и властвуй" для программы, в которой используется несколько методов.Развивайте навыки программной инженерии, полученные в курсе "Программирование на Java: Решение проблем с помощью программного обеспечения", изучив новые структуры данных. Используйте эти структуры данных для построения более сложных программ, использующих объектно-ориентированные возможности Java. В конце курса Вы напишете программу шифрования и программу для взлома Вашего алгоритма шифрования. После завершения этого курса Вы сможете: 1. Считывать и записывать данные из/в файлы; 2. Решать задачи, связанные с файлами данных; 3. Выполнять количественный анализ данных (например, находить максимумы, минимумы, средние значения); 4. Хранить данные в массиве или списке ArrayList и манипулировать ими; 5. Объединяйте несколько классов для решения больших задач; 6. Используйте итеративные переменные и коллекции (включая карты) в Java</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/specializations/java-programming</t>
+  </si>
+  <si>
+    <t>Специализация Объектно-ориентированное программирование на Java
+Развивайте свое портфолио в качестве инженера-программиста. Узнайте об объектно-ориентированном проектировании на четырех курсах, основанных на проектах.Программная инженерия
+Структура данных
+Компьютерное программирование
+Анализ данных
+Алгоритмы
+Решение проблем
+Хеш-таблица
+Отладка
+Разработка программного обеспечения
+Программирование на Java
+Объектно-ориентированное программирование (ООП)Научитесь кодировать на языке Java и улучшите свои навыки программирования и решения задач. Вы научитесь проектировать алгоритмы, а также разрабатывать и отлаживать программы. Используя пользовательские классы с открытым исходным кодом, Вы будете писать программы, которые получают доступ и преобразуют изображения, веб-сайты и другие типы данных. В конце курса Вы создадите программу, определяющую популярность различных детских имен в США с течением времени путем анализа файлов с разделенными запятыми значениями (CSV). 
+После завершения этого курса Вы сможете: 1. Редактировать, компилировать и запускать программу на Java; 2. Использовать условия и циклы в Java-программе; 3. Использовать документацию Java API при написании программ. 
+4. Отлаживать Java-программу, используя научный метод; 5. Напишите метод Java для решения конкретной задачи; 6. Разработайте набор тестовых примеров как часть разработки программы; 7. Создайте класс с несколькими методами, которые работают вместе для решения проблемы; и 8. Используйте технику проектирования по принципу "разделяй и властвуй" для программы, в которой используется несколько методов.Развивайте навыки программной инженерии, полученные в курсе "Программирование на Java: Решение проблем с помощью программного обеспечения", изучив новые структуры данных. Используйте эти структуры данных для построения более сложных программ, использующих объектно-ориентированные возможности Java. В конце курса Вы напишете программу шифрования и программу для взлома Вашего алгоритма шифрования. После завершения этого курса Вы сможете: 1. Считывать и записывать данные из/в файлы; 2. Решать задачи, связанные с файлами данных; 3. Выполнять количественный анализ данных (например, находить максимумы, минимумы, средние значения); 4. Хранить данные в массиве или списке ArrayList и манипулировать ими; 5. Объединяйте несколько классов для решения больших задач; 6. Используйте итеративные переменные и коллекции (включая карты) в Java.Добро пожаловать на наш курс по объектно-ориентированному программированию на Java с использованием визуализации данных. Люди приходят на этот курс с самыми разными целями - и мы очень рады работать со всеми Вами! Некоторые из Вас хотят стать профессиональными разработчиками программного обеспечения, другие хотят улучшить свои навыки программирования, чтобы реализовать тот классный личный проект, о котором Вы давно думали, а третьи, возможно, еще не знают, зачем пришли, и пытаются понять, в чем суть этого курса. Это промежуточный курс по Java. Мы рекомендуем этот курс слушателям, имеющим предыдущий опыт разработки программного обеспечения или подготовку в области информатики.  Наша цель состоит в том, чтобы к концу этого курса каждый из Вас почувствовал в себе силы создать программу на Java, более совершенную, чем все те, которые Вы создавали в прошлом, и интересную лично для Вас. Для достижения этой цели Вы также изучите основы объектно-ориентированного программирования, научитесь использовать возможности существующих библиотек, создавать графические пользовательские интерфейсы и использовать некоторые основные алгоритмы для поиска и сортировки данных. И этот курс основан на проекте, так что мы сразу же погрузимся в работу над проектом! Мы рады предложить уникальную структуру курса, разработанную для того, чтобы помочь учащимся с разным уровнем подготовки добиваться успеха в своем собственном темпе. В первом модуле объясняется, как это будет работать и подходит ли Вам этот курс. Мы также рекомендуем уделить несколько минут изучению сайта курса. Хорошее место для начала - навигационная панель слева. Щелкните Содержание курса, чтобы узнать, какой материал мы будем рассматривать каждую неделю, а также ознакомиться с заданиями, которые Вам нужно будет выполнить, чтобы пройти курс. Щелкните Обсуждение, чтобы увидеть форумы, где Вы сможете обсудить материал курса с другими студентами, проходящими обучение. Не забудьте представиться всем в форуме "Знакомство". На прохождение этого курса отводится около 6 недель. Вы можете ознакомиться с рекомендуемым расписанием курса ниже, чтобы увидеть краткий обзор уроков и заданий, которые Вы будете выполнять каждую неделю. Мы рады, что Вы учитесь вместе с нами. Давайте начнем!</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/specializations/object-oriented-programming</t>
+  </si>
+  <si>
+    <t>Программирование на Java: Принципы проектирования программного обеспечения Получаемые навыки
+Принципы программирования
+Интерфейсы
+Разработка программного обеспечения
+Программирование на Java В этом модуле мы познакомимся с набором данных, содержащим подробную информацию о землетрясениях по всему миру. Вы узнаете, как вводить эти данные в программу, осуществлять поиск по ним и фильтровать данные по нужным критериям. К концу этого модуля Вы сможете (1) писать программы, включающие несколько классов и списки типов классов ArrayList, (2) находить максимальное значение в списке ArrayList, (3) использовать интерфейс Filter для поиска данных, (4) реализовывать интерфейсы с сигнатурами методов и (5) объединять несколько фильтров вместе.В этом модуле Вы продолжите использовать реальные данные о землетрясениях для изучения нескольких алгоритмов сортировки. Вы узнаете, как реализовать сортировку по выбору и пузырьковую сортировку, а затем познакомитесь с Java-методом Collections.sort, который сортирует с гораздо большей эффективностью. К концу этого модуля Вы сможете (1) реализовать несколько алгоритмов сортировки с нуля, (2) использовать эффективные уже существующие классы сортировки, (3) модифицировать метод compareTo класса для выбора критерия, по которому будут упорядочиваться объекты данного типа, и (4) написать классы, реализующие интерфейс Comparator, для создания взаимозаменяемых критериев сортировки.В этом модуле Вы изучите некоторые базовые концепции предиктивного текста. В первом уроке Вы познакомитесь с генерацией случайных символов, а затем с тем, как обучить выбор символов на основе входного текста. Во втором уроке эта концепция будет расширена до полных слов. К концу этого модуля Вы сможете: (1) основывать генерацию случайного текста на частоте встречаемости символов в обучающем тексте, (2) собирать набор символов, встречающихся в тексте после случайно выбранного начального символа (символов), для создания полуслучайного текста, (3) расширять генерацию предиктивного текста для использования целых слов, и (4) реализовать собственный метод .equals для сравнения сложных типов данных.
+Что включено</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/java-programming-design-principles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чему вы научитесь
+работать с потоками ввода-вывода, управлять файлами
+создавать и использовать коллекции Java
+работать с датой и временем
+использовать регулярные выражения
+управлять многопоточным выполнением программ
+разберетесь с новвоведениями в Java 8: лямбда-выражениями и функциональными интерфейсами
+познакомитесь с Streams API
+О курсе
+Погружаемся в возможности Java
+Вы уже знаете основы языка Java, и даже познакомились с принципами ООП?  Но этого далеко не достаточно, чтобы стать Java - профи! Нужно знать множество классов, входящих в стандартные библиотеки Java, и уметь их применять.
+В этом курсе мы постепенно изучим ключевые вопросы, которые позволят Вам писать эффективно программы на Java и достичь уровня junior-программиста:
+Библиотека ввода-вывода Java. Понимание ее организации позволит Вам в едином стиле осуществлять ввод-вывод с любыми устройствами: консолью, файлами на дисках, сервером в сети и т.д.
+Фреймворк Collections. Списки, множества, отображения - как работают разные коллекции и как они связаны между собой.
+Использование классов для даты и времени (в том числе новых классов из Java 8). Это возможность корректно вводить и выводить даты и время, находить периоды и интервалы между ними, строить алгоритмы, связанные с календарными датами.
+Регулярные выражения. Грамотное создание регулярного выражения позволяет существенно упростить работу с текстом и украсить Ваш код.
+Встроенная многопоточность в Java. Понимание особенностей многопоточности, управление и синхронизация параллельной работы разных частей Вашей программы.
+Лямбда-выражения и функциональные интерфейсы. Эти новые возможности Java 8 приближают язык Java к языку функционального программирования! Упрощают код  и открывают дорогу  к потокам Streams.
+Streams API. Потоки Streams - это мощный, красивый и очень эффективный инструмент современного языка Java. </t>
+  </si>
+  <si>
+    <t>https://stepik.org/course/193674/promo?search=6221716381</t>
+  </si>
+  <si>
+    <t>2000 RUB</t>
+  </si>
+  <si>
+    <t>Чему вы научитесь
+Вы научитесь разрабатывать REST сервисы на базе Telegram Bot-а
+Вы освоите приемы и практики, необходимые на каждом этапе производства проекта
+Вы сможете оттачивать получаемые знания, создавая реально полезный и рабочий продукт!
+О курсе
+Этот курс является неким видео-дневником, в котором описываются реальные этапы разработки сервиса на основе телеграм бота, который в будущим будет служить мне и другим пользователям. Из этого следует, что вы увидите весь путь его разработки изнутри, который наполнен уже устоявшимися решениями, которые появились у меня за время моей практики, и новыми идеями, родившимися в процессе его создания. Мы пройдем с вами весь путь от создания проекта до его деплоя на сервере и на этом пути излвлечем для себя много нового и интересного.</t>
+  </si>
+  <si>
+    <t>https://stepik.org/course/181438/promo?search=6221716382</t>
+  </si>
+  <si>
+    <t>Чему вы научитесь
+В курсе "Spring Framework: Фундаментальные Основы" вы в теории и на практике изучите следующие темы:
+Инверсия контроля (IoC) и Внедрении зависимостей (DI)
+Что такое Spring контейнер
+Зачем нужны Bean Definitions
+Область видимости бинов (Bean Scopes, Singleton, Ptototype, @Scope)
+Жизненный цикл бинов (Bean Life Cycle, @PostConstruct, @PreDestroy)
+Интерфейс BeanFactoryPostProcessor
+Интерфейс BeanPostProcessor (методы postProcessBeforeInit, postProcessAfterInit)
+Базовые Spring аннотации (@Bean, @Configuration, @Value, @Import)
+Особое внимание аннотации @Autowired и @Qualifier
+Что такое прокси и Spring АОП (Аспектно-ориентированное программирование)
+Каждое практическое видео содержит "горячие клавиши", чтобы вы могли быстрее освоиться с программой IntellijIDEA
+60 тестовых вопросов, которые помогут вам закрепить пройденную тему
+Ссылки на дополнительные материалы для изучения
+О курсе
+Курс "Spring Framework: фундаментальные основы" предназначен для тех, кто хочет изучить основы Spring Framework.
+В первой секции курса вы узнаете, что такое инверсия контроля и внедрение зависимостей, и как их использовать в Spring. Во второй секции вы изучите основные концепции Spring Core, такие как бины, фабрики бинов, жизненный цикл бинов, а также базовые аннотации Spring.
+Часто теории недостаточно, чтобы освоить материал. Поэтому каждая тема состоит из двух уроков. Первый урок — это теория, где мы с вами изучаем саму тему. А во втором уроке мы будем писать код чтобы закрепить пройденную теорию. Практика построена на простых примерах, чтобы вам было проще понять материал.
+В конце каждого теоретического урока будет самостоятельное задание, где вам нужно будет изучить дополнительные материалы.
+Мы начнем с самой базы, где еще нет Spring Boot. И начнем мы с модуля spring-beans, где нет ничего кроме BeanFactory, и постепенно шаг за шагом мы будем добавлять новые модули, например spring-context, а со временем и spring-aop. Таким образом мы начнем с самого ядра Spring и постепенно будем расширять наше приложение.</t>
+  </si>
+  <si>
+    <t>https://stepik.org/course/138316/promo?search=6221716386</t>
+  </si>
+  <si>
+    <t>700 RUB</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -430,9 +561,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -440,24 +571,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -469,6 +603,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -758,24 +895,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
-    <col min="3" max="3" width="178.5546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="178.53125" style="5" customWidth="1"/>
     <col min="4" max="5" width="47" customWidth="1"/>
     <col min="6" max="6" width="47" style="8" customWidth="1"/>
     <col min="7" max="7" width="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -798,7 +935,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="1" t="s">
@@ -813,7 +950,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="1" t="s">
@@ -828,7 +965,7 @@
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="1" t="s">
@@ -843,7 +980,7 @@
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="121.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="1" t="s">
@@ -858,7 +995,7 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="1" t="s">
@@ -873,7 +1010,7 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="1" t="s">
@@ -888,7 +1025,7 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="1" t="s">
@@ -903,7 +1040,7 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="1" t="s">
@@ -918,7 +1055,7 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="1" t="s">
@@ -933,7 +1070,7 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="1" t="s">
@@ -948,61 +1085,97 @@
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="2"/>
+      <c r="C12" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="C13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="C14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="C15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="C16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="C17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="1"/>
@@ -1011,7 +1184,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="1"/>
@@ -1020,7 +1193,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="1"/>
@@ -1029,7 +1202,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="1"/>
@@ -1038,7 +1211,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="1"/>
@@ -1047,7 +1220,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="1"/>
@@ -1056,7 +1229,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="1"/>
@@ -1065,7 +1238,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="1"/>
@@ -1074,7 +1247,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="1"/>
@@ -1083,7 +1256,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="1"/>
@@ -1092,7 +1265,7 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="1"/>
@@ -1101,7 +1274,7 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="1"/>
@@ -1110,7 +1283,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
@@ -1119,7 +1292,7 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
@@ -1128,7 +1301,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="1"/>
@@ -1137,7 +1310,7 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="1"/>
@@ -1146,7 +1319,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="1"/>
@@ -1155,7 +1328,7 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="1"/>
@@ -1164,7 +1337,7 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="1"/>
@@ -1173,7 +1346,7 @@
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="1"/>
@@ -1182,7 +1355,7 @@
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="1"/>
@@ -1191,7 +1364,7 @@
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="1"/>
@@ -1200,7 +1373,7 @@
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="1"/>
@@ -1209,21 +1382,22 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" s="2" customFormat="1" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" s="2" customFormat="1" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C41" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
-    <hyperlink ref="D5" r:id="rId2"/>
-    <hyperlink ref="D6" r:id="rId3"/>
-    <hyperlink ref="D7" r:id="rId4"/>
-    <hyperlink ref="D8" r:id="rId5"/>
-    <hyperlink ref="D9" r:id="rId6"/>
-    <hyperlink ref="D10" r:id="rId7"/>
-    <hyperlink ref="D11" r:id="rId8"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D9" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D11" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D12" r:id="rId9" xr:uid="{0313B09D-D435-4538-BDD0-A98F76162123}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
--- a/DataBase/Descriptions.xlsx
+++ b/DataBase/Descriptions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programing\Prog_Py\PP\MEPHI-pp\DataBase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\Prog_Py\PP\MEPHI-pp\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2830968B-CC90-4F7E-A1F4-D6857B9AE59F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220F7788-AC12-465F-9C23-709BC2DB142E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="63">
   <si>
     <t>ID</t>
   </si>
@@ -485,12 +485,78 @@
   <si>
     <t>700 RUB</t>
   </si>
+  <si>
+    <t>680000-945000 RUB</t>
+  </si>
+  <si>
+    <t>30000 RUB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veritas AI — это виртуальная программа ИИ для учащихся средних и старших классов, основанная и управляемая аспирантами Гарварда. Учащиеся средних классов могут присоединиться к десятисеансовому лагерю AI Trailblazers . В рамках этой программы вы изучите основы искусственного интеллекта и машинного обучения, а также основы Python. Вы будете работать над практическими, реальными проектами ИИ, которые используют Python в таких областях, как медицина, финансы, автономные транспортные средства и многое другое, под руководством наставников из ведущих университетов. Это лучше всего подходит для начинающих студентов! </t>
+  </si>
+  <si>
+    <t>200000-400000  USD</t>
+  </si>
+  <si>
+    <t>100000-130000 RUB</t>
+  </si>
+  <si>
+    <t>"В этом курсе по программированию на языке Python вы познакомитесь с базовыми понятиями программирования.
+Едва ли возможно научиться программировать без практики, поэтому в качестве домашних заданий вам будет предложено довольно много задач, в которых вы сможете потренировать своё умение программировать.
+Ваши решения будут проверяться автоматической системой, поэтому вы будете получать быструю обратную связь. В силу большого количества участников курса, преподаватели не смогут давать индивидуальных советов по каждой программе, но если у вас будут возникать проблемы, то их всегда можно обсудить с однокурсниками в комментариях к задачам.
+Также в курсе присутствует несколько задач повышенной сложности, которые являются необязательными для прохождения курса, однако желающие смогут поломать голову над придумыванием алгоритмов и реализацией программ к этим задачам.
+"</t>
+  </si>
+  <si>
+    <t>"Программа “Python-разработчик” рассчитана на тех, кто хочет обучиться разработке серверной части веб-приложений с использованием языка программирования Python. Программа включает в себя теоретические материалы, видеоуроки, а также практические задания. По окончании обучения выпускники получают сертификат о прохождении курса.
+Вы научитесь разрабатывать бэкенд, то есть логику и функционал, сайтов, приложений и других веб-сервисов, использовать фреймворк Django — один из самых популярных фреймворков для Python, создавать REST API — интерфейс, в котором взаимодействуют программы. А также изучите циклы, ветвления, логические выражения, операции над множествами, словари, операции над коллекциями, протокол HTTP и сетевые запросы."</t>
+  </si>
+  <si>
+    <t>"Программа курса
+Предварительная обработка данных 
+Индуктивный анализ
+Основы теории вероятностей и статистики
+Предиктивный анализ
+Дескриптивный (описательный) анализ
+Разведочный (диагностический) анализ 
+Сквозной кейс
+Кейс для решения с экспертом
+Итоговый проект
+"</t>
+  </si>
+  <si>
+    <t>"Python-разработчик: расширенный курс
+Освоите универсальный язык программирования и сможете начать работать уже через 6 месяцев обучения
+Изучите профессиональные инструменты Python-разработки и потренируете важные для работодателей soft skills
+Добавите в портфолио 22 проекта, поработаете над реальными кейсами и примете участие в хакатоне"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://stepik.org/course/82541/promo
+, https://stepik.org/course/68343/syllabus
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://practicum.yandex.ru/backend-developer/
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://changellenge-education.com/toolkit/python-advanced#reg
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.veritasai.com/ai-trailblazers
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://netology.ru/programs/python?utm_content=1027754493e32ce4ff256bb54ae8b5&amp;utm_medium=cpa&amp;utm_source=sravni#/main
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -522,6 +588,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -563,7 +636,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -592,6 +665,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -898,8 +977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="48" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1112,7 +1191,9 @@
       <c r="E13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1127,7 +1208,9 @@
       <c r="E14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1142,7 +1225,9 @@
       <c r="E15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1157,7 +1242,9 @@
       <c r="E16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1172,52 +1259,84 @@
       <c r="E17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="2"/>
+      <c r="C18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>58</v>
+      </c>
       <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="F18" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="2"/>
+      <c r="C19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>59</v>
+      </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="F19" s="12" t="s">
+        <v>49</v>
+      </c>
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="2"/>
+      <c r="C20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>60</v>
+      </c>
       <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="F20" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="2"/>
+      <c r="C21" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="F21" s="12" t="s">
+        <v>52</v>
+      </c>
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="2"/>
+      <c r="C22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>62</v>
+      </c>
       <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="F22" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1396,8 +1515,13 @@
     <hyperlink ref="D10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
     <hyperlink ref="D11" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
     <hyperlink ref="D12" r:id="rId9" xr:uid="{0313B09D-D435-4538-BDD0-A98F76162123}"/>
+    <hyperlink ref="D18" r:id="rId10" xr:uid="{3C106D1A-81BA-44CA-B4BD-48225D986798}"/>
+    <hyperlink ref="D19" r:id="rId11" xr:uid="{171DE3BE-DC74-4974-B33D-9A04C183624D}"/>
+    <hyperlink ref="D20" r:id="rId12" location="reg_x000a_" xr:uid="{C6F517D1-ED02-45EF-9910-19EC0F06EBD4}"/>
+    <hyperlink ref="D21" r:id="rId13" xr:uid="{D8462213-5F65-41C7-BD4F-ACB123993930}"/>
+    <hyperlink ref="D22" r:id="rId14" location="/main_x000a_" xr:uid="{C3DA989F-4B8A-4EC2-A3D9-0CC280D1A968}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
--- a/DataBase/Descriptions.xlsx
+++ b/DataBase/Descriptions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\Prog_Py\PP\MEPHI-pp\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220F7788-AC12-465F-9C23-709BC2DB142E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360416BB-6A7F-46C5-B385-E691C7FDA3A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="93">
   <si>
     <t>ID</t>
   </si>
@@ -551,12 +551,159 @@
     <t xml:space="preserve">https://netology.ru/programs/python?utm_content=1027754493e32ce4ff256bb54ae8b5&amp;utm_medium=cpa&amp;utm_source=sravni#/main
 </t>
   </si>
+  <si>
+    <t>Курс
+«Java-разработчик»
+Освоите профессию с нуля за 10 месяцев. Будете много практиковаться — в том числе на проектах от реальных заказчиков, чтобы сразу стартовать в IT.</t>
+  </si>
+  <si>
+    <t>https://practicum.yandex.ru/java-developer/</t>
+  </si>
+  <si>
+    <t>Вы изучите новые возможности Java, научитесь применять принципы ООП и поймёте, как протестировать и оптимизировать свой и чужой код. Поработаете с реальным заказчиком, дополните портфолио новыми работами и сможете брать более сложные и дорогие задачи.</t>
+  </si>
+  <si>
+    <t>https://skillbox.ru/course/java/</t>
+  </si>
+  <si>
+    <t>В курсе рассматриваются основы объектно-ориентированного программирования на языке Java. Вы получите базовые теоретические знания и научитесь разрабатывать простые программы. Узнаете что такое классы, объекты, интерфейсы. Познакомитесь с ключевыми концепциями объектно-ориентированного подхода в программировании: инкапсуляция, наследование, полиморфизм. Курс практикоориентированный, мы установим бесплатную среду разработки intellij idea и будет в ней писать компилировать и запускать свои приложения.</t>
+  </si>
+  <si>
+    <t>https://stepik.org/course/119904/promo?search=5671920157</t>
+  </si>
+  <si>
+    <t>Этот курс предназначен как для людей, которые никогда не изучали языки программирования, так и для тех, кто уже знает язык Java и хочет углубить свои знания и подготовиться к собеседованию на должность Junior разработчика.
+В этом курсе мы с самого нуля изучим синтаксис Java, основные конструкции – циклы и условия, рассмотрим объектно-ориентированное программирование, узнаем такие страшные понятия как инкапсуляция, наследование и полиморфизм, и что оказывается не такие уж они и страшные, научимся создавать многопоточные программы и многое другое.</t>
+  </si>
+  <si>
+    <t>Java с нуля до Junior + Подготовка к собеседованию – Stepik (https://stepik.org/course/118518/promo)</t>
+  </si>
+  <si>
+    <t>Освойте мощный язык для создания IT-решений любой сложности — от мобильных приложений до корпоративных систем.
+Обучайтесь по четко структурированной программе с поддержкой наставников, чтобы быстрее достичь целей.
+Освойте backend-разработку на Java и основы DevOps, соберите портфолио и откликайтесь на вакансии уже после 7 месяцев обучения.
+ Вариант 2( выбирает мидл)</t>
+  </si>
+  <si>
+    <t>https://skillfactory.ru/java-razrabotchik</t>
+  </si>
+  <si>
+    <t>Погрузитесь в мир высокопроизводительных технологий и освоите передовые инструменты программирования. В программе: Lombok, Docker, Spring BOOT, Spring Security, Kafka, Netty, RabbitMQ и пр. технологии, необходимые для работы Middle разработчиком.</t>
+  </si>
+  <si>
+    <t>Курс программирования Java Middle с трудоустройством | EasyUM (https://it.easyum.ru/courses/java-middle-spring-hibernate)</t>
+  </si>
+  <si>
+    <t>Научитесь работать с редкими функциями Selenium и писать автотесты на Java с помощью фреймворков. Прокачаете навыки UI-тестирования, сможете зарабатывать больше на прежнем месте работы или перейти в более сильную компанию.</t>
+  </si>
+  <si>
+    <t>Курс «Автоматизированное тестирование на Java»: обучение на тестировщика Java онлайн — на платформе Skillbox (https://skillbox.ru/course/autotesting-java/?utm_source=sravni&amp;utm_medium=cpa&amp;utm_campaign=sravni_affiliate&amp;skb_cpa_transaction_id=1021fda9d0b44887450faf5f4ec700)</t>
+  </si>
+  <si>
+    <t>Наглядная теория, много практики и вебинары от экспертов в автоматизации
+Мы объясним теорию понятным языком, а вы закрепите её в заданиях с автоматической проверкой. А ещё специалисты проведут онлайн-встречи по каждому модулю: разберут с вами сложные темы и интересные кейсы, поделятся опытом и ответят на вопросы. 4 учебных проекта и подробная обратная связь
+В течение курса вы выполните проекты, которые сможете положить в портфолио. Каждую работу проверит тестировщик с большим опытом в автоматизации и даст подробную обратную связь — с ней проще развиваться.</t>
+  </si>
+  <si>
+    <t>Курс «Автоматизация тестирования на Java» - обучение автотестированию — Яндекс Практикум (https://practicum.yandex.ru/qa-automation-engineer-java/?utm_source=partners&amp;utm_medium=cpc&amp;utm_campaign=sravni_cpc_RF_Prog_qaAuEnJa_b2c_Course-catalogue_None_None)</t>
+  </si>
+  <si>
+    <t>Курс подготовлен для действующих разработчиков, которые планируют повысить свой скиллсет до уровня Middle Java разработчика под контролем опытных наставников. Обучение включает в себя изучение текстового учебного контента и вебинаров авторов курса, а также выполнение проекта, позволяющего использовать знания и лучшие практики, рассмотренные на курсе.</t>
+  </si>
+  <si>
+    <t>Middle Java Developer для МТС Банк – Stepik (https://stepik.org/course/121172/promo)</t>
+  </si>
+  <si>
+    <t>Образовательная программа
+представляет собой комплексный курс для современного Java-разработчика.Программа охватывает все современные аспекты промышленной разработки на Java, начиная с ООП и функционального программирования, погружает в Spring Framework и работу с базами данных, и включает необходимые профессиональному разработчику темы многопоточности, ввода-вывода и архитектуры REST-сервисов.
+Программа «Java-разработчик. Middle Developer» позволит углубить свои знания языка Java, получить опыт решения сложных задач и подготовиться к сдаче сертификации в IBS или к сдаче Oracle сертификации OCPJP.</t>
+  </si>
+  <si>
+    <t>Java-разработчик. Middle Developer | | Разработка ПО (Java) (https://ibs-training.ru/kurs/Java_razrabotchik_Intermediate.html)</t>
+  </si>
+  <si>
+    <t>Чему вы научитесь
+Разрабатывать программы на Java, используя основные конструкции языка, такие как циклы, условия и многопоточность.
+Применять объектно-ориентированное программирование, работать с Collections Framework и использовать JUnit для тестирования.
+Решать практические задачи на Java, улучшая навыки работы с базовым синтаксисом и конструкциями языка.
+Применять знания Java для решения реальных задач и улучшения логического мышления.
+Использовать Spring Framework для создания приложений, применяя инверсию управления и внедрение зависимостей.
+Работать с основными Spring аннотациями, жизненным циклом бинов и аспектно-ориентированным программированием.
+Управлять версиями программного обеспечения с помощью Git, создавая и работа с ветками.
+Работать с репозиториями на GitHub, отправлять изменения на сервер и разрешать конфликты.
+Писать запросы SQL для взаимодействия с базами данных, разрабатывать структуры баз данных.
+Оптимизировать запросы, работать с транзакциями и использовать продвинутые функции SQL.
+Использовать командную строку Linux для выполнения административных задач и управления файлами.
+Писать и использовать BASH-скрипты для автоматизации задач, работать с правами доступа и управлением пользователями.
+Готовиться к собеседованиям на позицию Java-разработчика, решая типичные задачи и вопросы по Java и SQL.
+Понимать процесс code review и общение с HR-менеджерами, а также работать с протоколом HTTP.</t>
+  </si>
+  <si>
+    <t>https://stepik.org/course/212609/promo?search=6222083995</t>
+  </si>
+  <si>
+    <t>7900 RUB</t>
+  </si>
+  <si>
+    <t>Чему вы научитесь
+Вы познакомитесь с вводом и выводом данных.
+Писать программы для решения математических задач.
+Освоите работу с условным и тернарным оператором.
+Познакомитесь с циклами.
+Работать с одномерными и двумерными массивами.
+Ваша программа сможет считывать и обрабатывать слова, и целые предложения.
+Создавать свои структуры данных.
+Создавать свои собственные функции, которые будут выполнять те действия, которые вы в них заложите, а так же разберетесь с таинственным словом рекурсия.
+О курсе
+В дополнение к теоретической части , предоставлен подробный разбор каждой темы в видео формате, в которых автор наглядно показывает и рассказывает обо всех особенностях программирования.
+В процессе прохождения курса, Вы будете самостоятельно писать программы и решать практические задания. Приобретёте именной сертификат, подтверждающий Вашу новую квалификацию.
+Для кого этот курс
+Для тех, хочет стать разработчиком, чтобы начать свой путь в IT.
+Для студентов IT-специальностей, чтобы познакомиться с основами программирования на языке Java.
+Для тех, кто уже работает в IT, чтобы повысить свою ценность как специалиста и расширить свой стек , а также для тех, кто еще не определился с языком программирования.</t>
+  </si>
+  <si>
+    <t>https://stepik.org/course/181456/promo?search=6222084003</t>
+  </si>
+  <si>
+    <t>890 RUB</t>
+  </si>
+  <si>
+    <t>Чему вы научитесь
+Вы максимально просто и детально изучите следующие необходимые для программиста темы:
+Коллекции и Дженерики
+Лямбда выражения и Стримы
+Многопоточность
+Работа с файлами
+Регулярные выражения и вложенные классы
+Рефлексия и Аннотации
+О курсе
+Привет, друзья! 
+Если вы просматриваете данное обращение, то Вы, несомненно уже в курсе, что Java присутствует во всех сферах жизни и решает практически любые задачи. На Java пишутся серверные приложения, веб приложения, разные программы для десктопа ииии барабанная дробь. Если вы хотите научиться писать Android приложения, то Добро пожаловать в мир Java. Ведь подавляющее большинство Android приложений пишется именно на Java.
+Итак, для кого же предназначен мой видеокурс?
+Курс идеально подходит для тех, кто уже знаком с базовыми темами языка программирования Java. А также курс несомненно заценят люди, которые являются программистами с определённым стажем. Поверьте, Вы обязательно узнаете много нового вне зависимости от уже имеющихся знаний.
+Просмотрев данный курс, Вы будете себя уверенно чувствовать, проходя собеседования на вакансию Java Разработчика.
+Если же Вы на данный момент не обладаете базовыми знаниями языка Java, то для Вас у меня создан курс «Java для начинающих» , который является BESTSELLER-ом в своей категории.
+Знаете что я люблю делать, больше чем программировать? Обучать программированию! Знаю немалое количество отличнейших программистов которые, к всеобщему сожалению, ну не могут объяснить что-либо простыми словами.
+Мои же принципы и методика обучения позволили создать курс из 120-ти уроков, в которых рассматриваются очень серьёзные и необходимые темы языка Java.
+Также, уделяю особое внимание обратной связи. Я всегда охотно общаюсь со своими студентами и отвечаю на их вопросы.
+До скорой встречи друзья и удачного обучения!</t>
+  </si>
+  <si>
+    <t>https://stepik.org/course/115517/promo?search=6222085235</t>
+  </si>
+  <si>
+    <t>1750 RUB</t>
+  </si>
+  <si>
+    <t>https://stepik.org/course/193674/promo?search=6222085244</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -599,6 +746,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -632,11 +794,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -672,10 +836,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Гиперссылка 2" xfId="3" xr:uid="{D83EC373-3EDE-4275-8C4B-66CDC43B65C5}"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="2" xr:uid="{09FDF245-0CA2-4CAD-BB4F-4888039E12D2}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -977,8 +1149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="48" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="40" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1341,128 +1513,240 @@
     </row>
     <row r="23" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>85</v>
+      </c>
       <c r="G33" s="2"/>
     </row>
     <row r="34" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>88</v>
+      </c>
       <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="G35" s="2"/>
     </row>
     <row r="36" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>43</v>
+      </c>
       <c r="G36" s="2"/>
     </row>
     <row r="37" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1520,8 +1804,9 @@
     <hyperlink ref="D20" r:id="rId12" location="reg_x000a_" xr:uid="{C6F517D1-ED02-45EF-9910-19EC0F06EBD4}"/>
     <hyperlink ref="D21" r:id="rId13" xr:uid="{D8462213-5F65-41C7-BD4F-ACB123993930}"/>
     <hyperlink ref="D22" r:id="rId14" location="/main_x000a_" xr:uid="{C3DA989F-4B8A-4EC2-A3D9-0CC280D1A968}"/>
+    <hyperlink ref="D30" r:id="rId15" display="https://practicum.yandex.ru/qa-automation-engineer-java/?utm_source=partners&amp;utm_medium=cpc&amp;utm_campaign=sravni_cpc_RF_Prog_qaAuEnJa_b2c_Course-catalogue_None_None" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
--- a/DataBase/Descriptions.xlsx
+++ b/DataBase/Descriptions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\Prog_Py\PP\MEPHI-pp\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360416BB-6A7F-46C5-B385-E691C7FDA3A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{88C4265B-B753-49C2-B791-5C3652F5261A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="106">
   <si>
     <t>ID</t>
   </si>
@@ -698,12 +698,147 @@
   <si>
     <t>https://stepik.org/course/193674/promo?search=6222085244</t>
   </si>
+  <si>
+    <t>Чему вы научитесь
+На этом курсе вы научитесь синтаксису языка С++. А именно:
+1) Что такое С++?
+2) Типа данных
+3) Условные операторы
+4) Циклы
+5) Массивы
+Помимо этого вы сделаете интро в миро алгоритмов а именно:
+6) Работа с строками
+7) Функции и рекурсия
+8) Структуры данных
+9) Бинарный поиск
+Вы сможете отточить свои навыки на 60 различных задачах.
+О курсе
+"Введение в С++" от Jusan Singularity представляет собой путь к полному пониманию этого мощного языка программирования. В первых шести модулях вы овладеете базовым синтаксисом, начиная с основных концепций и заканчивая работой с массивами. Далее, начиная с седьмого модуля вы перейдете к более глубоким аспектам языка, включая работу со строками, рекурсией и структурами данных. Наконец, последний модуль предложит вам введение в алгоритмы, с фокусом на бинарном поиске, подготавливая вас к более сложным задачам.</t>
+  </si>
+  <si>
+    <t>https://stepik.org/course/134002/promo?search=5958194906</t>
+  </si>
+  <si>
+    <t>Основы C/C++ для спортивного программирования – Stepik</t>
+  </si>
+  <si>
+    <t>Языки программирования C и C++ традиционно являются одними из «классических» языков спортивного программирования, наиболее удобными и часто используемыми для написания программ на соревнованиях.
+Онлайн-курс «Основы C/C++ для спортивного программирования» познакомит с базовыми понятиями языка. В рамках курса раскрываются такие темы, как переменные, типы данных, условные операторы, циклы, функции и другие.
+Курс рассчитан на четыре недели. Каждое занятие состоит из видеолекций, посвященных определенной тематике, а также практических задач, которые помогут закрепить пройденный материал.Курс рассчитан на четыре недели. Каждое занятие состоит из видеолекций, посвященных определенной тематике, а также практических задач, которые помогут закрепить пройденный материал.
+Модули программы:
+Модуль 1: Переменные
+Модуль 2: Условные операторы и циклы
+Модуль 3: Массивы и функции
+Модуль 4: Сложные структуры данных
+Модуль 5: Битовые операции и системы счисления
+Онлайн-курс «Основы C/C++ для спортивного программирования» — это первая часть программы интенсивной подготовки по спортивному программированию и искусственному интеллекту RuCode Festival, реализуемой МФТИ совместно с Фондом развития Физтех-школ при поддержке Фонда президентских грантов.
+Для кого этот курс
+Курс рассчитан на учащихся старших классов школы и студентов младших курсов технических специальностей, желающих познакомиться с базовыми понятиями языков программирования C и C++ в рамках спортивного программирования.</t>
+  </si>
+  <si>
+    <t>Многопоточное программирование на С/С++ – Stepik</t>
+  </si>
+  <si>
+    <t>О курсе
+Перед курсом предлагается пройти диагностический экзамен, который не оценивается, но позволяет понять, насколько вы готовы идти дальше.
+Курс состоит из семи двухнедельных учебных модулей:
+Контейнеры. Умные указатели. Аллокаторы.
+Сокеты Беркли. Мультиплексирование.
+Асинхронная работа с сетью.
+Процессы. Каналы. Сигналы.
+Очереди сообщений. Семафоры. Общая память.
+Потоки. Средства синхронизации.
+Параллельное программирование.
+Каждый модуль оценивается в 100 баллов. Кроме того есть финальный экзамен — собственный проект, который оценивается в 300 баллов. Чтобы получить сертификат, надо набрать 900 баллов, а для сертификата с отличием — 1000.
+Курс был разработан и опубликован в 2015 году
+Для кого этот курс
+Студенты математических и технических специальностей ВУЗов.
+Начальные требования
+Знание C/C++. Умение обращаться с Unix-like операционными системами.</t>
+  </si>
+  <si>
+    <t>Курс лабораторных работ по дисциплине ОАиП для студентов первого курса Факультета компьютерных систем и сетей специальности Информатика и технологии программирования. Беларусь, Минск
+Чему вы научитесь
+Узнаете историю и базовые концепции языков С/С++
+Изучите основные типа данных и инструкции управления
+Ознакомитесь с стандартными библиотеками языка С++
+Научитесь работать с массивами, строками и указателями
+Изучите принципы функционального программирования
+Научитесь проектировать Структуры и Объединения
+Спроектируете собственные библиотеки
+Освоите базовые навыки тестирования ПО
+Получите практические навыки решения алгоритмических задач разной сложности
+О курсе
+Цель данного курса - ознакомить с базовыми принципами работы языка программирования С++ и написать программный комплекс для хранения и обработки данных в прикладной предметной области;
+Данный курс предназначен в первую очередь для студентов 1-го специальностей технико-программного профиля, однако он также будет полезен любому энтузиасту который хочет изучить программирование начав с языка С++;
+За время прохождения курса учащиеся приобретут практические навыки не только в написании программ на языке С++, но также изучат базовые принципы работы Операционных систем и компиляторов;
+У курса есть дедлайны рассчитанные на то, что учащийся будет каждый день уделять программированию минимум 1 час. Это необходимо для закрепления навыков написания кода;
+В течение курса вы ознакомитесь с базовыми темами модульно, не тратя лишние силы на поиск дополнительной информации в интернете;
+Формат работы - задачи уровня лабораторных работ в университете
+Для кого этот курс
+Данный курс предназначен в первую очередь для студентов и очень похож на формат обучения который дают в университете, однако любой желающий может попробовать свои силы в освоении С++
+Начальные требования
+Если вы смогли найти этот курс, то вы можете начать учиться :)</t>
+  </si>
+  <si>
+    <t>Основы Алгоритмизации и Программирования на языке С++ – Stepik</t>
+  </si>
+  <si>
+    <t>В этом продолжении курса по языку C/C++ вы подробно познакомитесь с парадигмой объектно-ориентированного программирования (ООП), которая теперь используется при разработке практически любых современных проектов. Дополнительно узнаете о механизме обработки исключений, а также шаблонах классов и функций.
+Чему вы научитесь
+1. Получите общее понимание парадигмы ООП языка С++.
+2. Познакомитесь с концепцией классов и объектов.
+3. Узнаете о режимах доступа к полям и методам классов.
+4. Изучите различные виды конструкторов классов. Деструкторы классов.
+5. Узнаете о статических полях и константных методах классов.
+6. Подробно изучите способы переопределения стандартных операций для объектов классов.
+7. Познакомитесь с механизмом наследования и виртуальными методами.
+8. Научитесь применять обработку исключений и операторы приведения типов.
+9. Изучите шаблоны классов и функций.
+О курсе
+Объектно-ориентированное программирование (ООП) - это то, что качественно отличает язык C++ от языка Си. Благодаря поддержке ООП, шаблонам и STL языку C++ часто отдают предпочтение при разработке больших проектов.
+Этот курс позволит вам перейти на новую, более высокую ступеньку в освоении языка C++ и в целом - на более высокий уровень программирования. Курс предусмотрен, как продолжение первого (базового) курса по C/C++ (https://stepik.org/course/193691/), и если вы его еще не проходили, то следует начинать с него.
+В курсе по ООП вы постепенно будете знакомиться с основными его элементами: классами, объектами, наследованием, виртуальными методами, шаблонами классов и функций. Это база, которая позволит вам уверенно писать свои первые проекты на языке C++ с применением ООП, развиваясь и далее в этом направлении.
+Телеграм-канал для обсуждения: https://t.me/java_and_c
+Продолжение: курс по структурам данных: https://stepik.org/course/134212/
+Для кого этот курс
+Этот курс продолжение курса "Добрый, добрый C/C++" (https://stepik.org/course/193691/), который был посвящен основам языка C/C++. Если вы его не проходили, или плохо владеете базовыми конструкциями программирования на C/C++, то рекомендуется сначала ознакомиться с базой языка, а уже затем, переходить на следующий уровень ООП.</t>
+  </si>
+  <si>
+    <t>Добрый, добрый ООП C++ с Сергеем Балакиревым – Stepik</t>
+  </si>
+  <si>
+    <t>Этот курс — ключ к глубокому пониманию и применению GOF паттернов проектирования и принципов SOLID в ваших проектах. Так же полученные знания и навыки сделают вас более уверенным кандидатом на собеседованиях.
+Чему вы научитесь
+Применять принципы SOLID
+Писать чистый и правильный код
+Порождающие паттерны
+Структурные паттерны
+Поведенческие паттерны
+Язык UML
+О курсе
+Этот курс призван стать вашим проводником в мире паттернов проектирования и основ SOLID. Основная цель — подготовить вас к использованию паттернов в реальных проектах, обеспечивая прочное понимание основных концепций и способов их применения.
+Здесь вы найдете не просто теоретический материал, а живые примеры, понятные объяснения и задания, которые помогут вам закрепить каждый изученный материал. Я составил уроки так, чтобы помочь вам освоить паттерны проектирования и принципы SOLID с легкостью и уверенностью.
+Вы будете изучать разные категории паттернов (порождающие, структурные, поведенческие), погружаясь в каждый из них с помощью практических примеров на языке C++. Вас также ожидает глубокое погружение в принципы SOLID и бонусный раздел об UML.
+Так же можете ознакомиться с моим курсом про Сокеты в C++.
+Присоединяйтесь к моему телеграмм каналу, там тоже много интересного: https://t.me/program_days
+Для кого этот курс
+Этот курс предназначен для программистов и любопытствующих.
+Начальные требования
+Базовые знания C++ и так же знания объектно-ориентированного программирования.</t>
+  </si>
+  <si>
+    <t>1499 RUB</t>
+  </si>
+  <si>
+    <t>https://stepik.org/course/188228/promo?search=5958261110</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -761,6 +896,13 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -800,7 +942,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -842,12 +984,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Гиперссылка 2" xfId="3" xr:uid="{D83EC373-3EDE-4275-8C4B-66CDC43B65C5}"/>
+    <cellStyle name="Гиперссылка 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="2" xr:uid="{09FDF245-0CA2-4CAD-BB4F-4888039E12D2}"/>
+    <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1147,23 +1296,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="40" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="40" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
-    <col min="3" max="3" width="178.53125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="178.59765625" style="5" customWidth="1"/>
     <col min="4" max="5" width="47" customWidth="1"/>
     <col min="6" max="6" width="47" style="8" customWidth="1"/>
     <col min="7" max="7" width="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="121.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1186,7 +1335,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" ht="121.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="1" t="s">
@@ -1201,7 +1350,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" ht="121.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="1" t="s">
@@ -1216,7 +1365,7 @@
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" ht="121.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="1" t="s">
@@ -1231,7 +1380,7 @@
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:7" ht="121.35" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="1" t="s">
@@ -1246,7 +1395,7 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="121.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="1" t="s">
@@ -1261,7 +1410,7 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" ht="121.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="1" t="s">
@@ -1276,7 +1425,7 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" ht="121.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="1" t="s">
@@ -1291,7 +1440,7 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" ht="121.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="1" t="s">
@@ -1306,7 +1455,7 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" ht="121.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="1" t="s">
@@ -1321,7 +1470,7 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" ht="121.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="1" t="s">
@@ -1336,7 +1485,7 @@
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" ht="121.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="10" t="s">
@@ -1351,7 +1500,7 @@
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" ht="121.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="1" t="s">
@@ -1368,7 +1517,7 @@
       </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" ht="121.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="1" t="s">
@@ -1385,7 +1534,7 @@
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" ht="121.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="1" t="s">
@@ -1402,7 +1551,7 @@
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" ht="121.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="1" t="s">
@@ -1419,7 +1568,7 @@
       </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" ht="121.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="1" t="s">
@@ -1436,7 +1585,7 @@
       </c>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" ht="121.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="1" t="s">
@@ -1451,7 +1600,7 @@
       </c>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" ht="121.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="1" t="s">
@@ -1466,7 +1615,7 @@
       </c>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" ht="121.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="1" t="s">
@@ -1481,7 +1630,7 @@
       </c>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" ht="121.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="11" t="s">
@@ -1496,7 +1645,7 @@
       </c>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" ht="121.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="1" t="s">
@@ -1511,7 +1660,7 @@
       </c>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" ht="121.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="2"/>
       <c r="B23" s="13"/>
       <c r="C23" s="14" t="s">
@@ -1528,7 +1677,7 @@
       </c>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" ht="121.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="2"/>
       <c r="B24" s="13"/>
       <c r="C24" s="14" t="s">
@@ -1545,7 +1694,7 @@
       </c>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" ht="121.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="2"/>
       <c r="B25" s="13"/>
       <c r="C25" s="14" t="s">
@@ -1562,7 +1711,7 @@
       </c>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" ht="121.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="2"/>
       <c r="B26" s="13"/>
       <c r="C26" s="14" t="s">
@@ -1579,7 +1728,7 @@
       </c>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" ht="121.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="2"/>
       <c r="B27" s="13"/>
       <c r="C27" s="14" t="s">
@@ -1596,7 +1745,7 @@
       </c>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" ht="121.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="2"/>
       <c r="B28" s="13"/>
       <c r="C28" s="14" t="s">
@@ -1613,7 +1762,7 @@
       </c>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" ht="121.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="2"/>
       <c r="B29" s="13"/>
       <c r="C29" s="14" t="s">
@@ -1630,7 +1779,7 @@
       </c>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" ht="121.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="2"/>
       <c r="B30" s="13"/>
       <c r="C30" s="14" t="s">
@@ -1647,7 +1796,7 @@
       </c>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" ht="121.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="2"/>
       <c r="B31" s="13"/>
       <c r="C31" s="14" t="s">
@@ -1664,7 +1813,7 @@
       </c>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" ht="121.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="2"/>
       <c r="B32" s="13"/>
       <c r="C32" s="14" t="s">
@@ -1681,7 +1830,7 @@
       </c>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" ht="121.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="2"/>
       <c r="B33" s="13"/>
       <c r="C33" s="14" t="s">
@@ -1698,7 +1847,7 @@
       </c>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" ht="121.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="2"/>
       <c r="B34" s="13"/>
       <c r="C34" s="14" t="s">
@@ -1715,7 +1864,7 @@
       </c>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" ht="121.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="2"/>
       <c r="B35" s="13"/>
       <c r="C35" s="14" t="s">
@@ -1732,7 +1881,7 @@
       </c>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" ht="121.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="2"/>
       <c r="B36" s="13"/>
       <c r="C36" s="14" t="s">
@@ -1749,44 +1898,87 @@
       </c>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" ht="121.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="2"/>
+      <c r="C37" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>94</v>
+      </c>
       <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
+      <c r="F37" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" ht="121.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="2"/>
+      <c r="C38" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>95</v>
+      </c>
       <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
+      <c r="F38" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" ht="121.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="2"/>
+      <c r="C39" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>97</v>
+      </c>
       <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
+      <c r="F39" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" ht="121.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="2"/>
+      <c r="C40" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>100</v>
+      </c>
       <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
+      <c r="F40" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" s="2" customFormat="1" ht="121.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C41" s="1"/>
+    <row r="41" spans="1:7" s="2" customFormat="1" ht="121.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C41" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="186" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C42" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>104</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1798,15 +1990,21 @@
     <hyperlink ref="D9" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="D10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
     <hyperlink ref="D11" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="D12" r:id="rId9" xr:uid="{0313B09D-D435-4538-BDD0-A98F76162123}"/>
-    <hyperlink ref="D18" r:id="rId10" xr:uid="{3C106D1A-81BA-44CA-B4BD-48225D986798}"/>
-    <hyperlink ref="D19" r:id="rId11" xr:uid="{171DE3BE-DC74-4974-B33D-9A04C183624D}"/>
-    <hyperlink ref="D20" r:id="rId12" location="reg_x000a_" xr:uid="{C6F517D1-ED02-45EF-9910-19EC0F06EBD4}"/>
-    <hyperlink ref="D21" r:id="rId13" xr:uid="{D8462213-5F65-41C7-BD4F-ACB123993930}"/>
-    <hyperlink ref="D22" r:id="rId14" location="/main_x000a_" xr:uid="{C3DA989F-4B8A-4EC2-A3D9-0CC280D1A968}"/>
-    <hyperlink ref="D30" r:id="rId15" display="https://practicum.yandex.ru/qa-automation-engineer-java/?utm_source=partners&amp;utm_medium=cpc&amp;utm_campaign=sravni_cpc_RF_Prog_qaAuEnJa_b2c_Course-catalogue_None_None" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="D12" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="D18" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="D19" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="D20" r:id="rId12" location="reg_x000a_" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="D21" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="D22" r:id="rId14" location="/main_x000a_" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="D30" r:id="rId15" display="https://practicum.yandex.ru/qa-automation-engineer-java/?utm_source=partners&amp;utm_medium=cpc&amp;utm_campaign=sravni_cpc_RF_Prog_qaAuEnJa_b2c_Course-catalogue_None_None" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="D37" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="D38" r:id="rId17" display="https://stepik.org/course/80538/promo?search=5958194903" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="D39" r:id="rId18" display="https://stepik.org/course/149/promo?search=5958194913%D0%B6%D0%BC%D1%8F%D0%BA" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="D40" r:id="rId19" display="https://stepik.org/course/86957/promo?search=5958194912" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="D41" r:id="rId20" display="https://stepik.org/course/205781/promo?search=5958261106" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="D42" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>
--- a/DataBase/Descriptions.xlsx
+++ b/DataBase/Descriptions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\Prog_Py\PP\MEPHI-pp\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88C4265B-B753-49C2-B791-5C3652F5261A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF048BB-4B25-41DC-8B5F-8D78CE9D6FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -942,7 +942,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -987,9 +987,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1296,10 +1301,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="40" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="40" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1919,7 +1924,7 @@
       <c r="C38" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D38" s="16" t="s">
+      <c r="D38" s="17" t="s">
         <v>95</v>
       </c>
       <c r="E38" s="2"/>
@@ -1934,7 +1939,7 @@
       <c r="C39" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="17" t="s">
         <v>97</v>
       </c>
       <c r="E39" s="2"/>
@@ -1949,7 +1954,7 @@
       <c r="C40" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="D40" s="17" t="s">
         <v>100</v>
       </c>
       <c r="E40" s="2"/>
@@ -1962,7 +1967,7 @@
       <c r="C41" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D41" s="16" t="s">
+      <c r="D41" s="17" t="s">
         <v>102</v>
       </c>
       <c r="F41" s="2" t="s">
@@ -1970,15 +1975,21 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="186" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C42" s="17" t="s">
+      <c r="C42" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="D42" s="16" t="s">
+      <c r="D42" s="17" t="s">
         <v>105</v>
       </c>
       <c r="F42" s="8" t="s">
         <v>104</v>
       </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D43" s="18"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D44" s="18"/>
     </row>
   </sheetData>
   <hyperlinks>
